--- a/Documentation/Risk List/Risk List 6.1.xlsx
+++ b/Documentation/Risk List/Risk List 6.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macuser/Documents/CSU/Study/Year 3/Sem 1/Software Development 1/salesAndWarehouseSystem/Documentation/Risk List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5717B25-3C44-0C43-A0BA-3362A5AE8E51}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB672DEF-4CA8-F64B-A3D8-D34F6734507B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="460" windowWidth="14360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -1256,28 +1256,16 @@
     <t>The project could be delayed.</t>
   </si>
   <si>
-    <t>The Operating System such as Windows or MacOS  may cause the issues when delpoying the product. Eg. The Intellij IDEA in Windows may not be able to run the same version of Jersey as Intellij IDEA in MacOS.</t>
-  </si>
-  <si>
     <t>The library cannot import the Jersey library.
 The bugs will be displyed when debug the product.</t>
   </si>
   <si>
-    <t>The bugs will be displyed when execute the product too many times.</t>
-  </si>
-  <si>
     <t>The Inteillij IDEA cannot deploy the product.</t>
   </si>
   <si>
     <t>Debug the product and close the connection to database every time execute a quey.</t>
   </si>
   <si>
-    <t xml:space="preserve">Training the technical skills and knowledge for team member such as how to use the Maven, JDK, Jersey or try to find the solution through online resources </t>
-  </si>
-  <si>
-    <t>Try to find the solution through online resources. Eg. Find the version which can be run on both WindowsOS and MacOS.</t>
-  </si>
-  <si>
     <t>Cannot solve the bugs after the due date of task as Iteration Plan.</t>
   </si>
   <si>
@@ -1285,9 +1273,6 @@
   </si>
   <si>
     <t>Ask help from other teams or the IT experts</t>
-  </si>
-  <si>
-    <t>Adding requirements in late phases</t>
   </si>
   <si>
     <t>Performance
@@ -1299,6 +1284,46 @@
   </si>
   <si>
     <t>Consider the importance of this requirement or try to find other alternatives.</t>
+  </si>
+  <si>
+    <t>Training the technical skills and knowledge for team member such as how to use the Maven, JDK, Jersey or try to find the solution through online resources (Jersey 2.26-b06, JDK 8)</t>
+  </si>
+  <si>
+    <t>The Operating System such as Windows or MacOS  may cause the issues when delpoying the product. Eg. The Intellij IDEA in Windows may not be able to run the project as Intellij IDEA in MacOS after merged from Github.</t>
+  </si>
+  <si>
+    <t>Issues with accessing MySQL database on Amazon Web Service.</t>
+  </si>
+  <si>
+    <t>Adding requirements in late phases.</t>
+  </si>
+  <si>
+    <t>MySQL depenency issues in Maven.</t>
+  </si>
+  <si>
+    <t>The Inteillij IDEA cannot deploy the product.
+The MySQL Workbench cannot connect to the AWS.</t>
+  </si>
+  <si>
+    <t>The Error 500 will be issued.</t>
+  </si>
+  <si>
+    <t>Intellij cannot display the data to database when execute the product too many times.</t>
+  </si>
+  <si>
+    <t>Try to find the solution through online resources or trying to delete the work.xml file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to find the solution through online resources or trying to delete and create a new artifact solved the issue. </t>
+  </si>
+  <si>
+    <t>Ask help from other teams or the Intellij experts</t>
+  </si>
+  <si>
+    <t>Try to find the solution through online resources or trying to check the security settings of AWS.</t>
+  </si>
+  <si>
+    <t>Ask help from other teams or the AWS experts</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1412,21 +1437,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1928,7 +1942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2128,9 +2142,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2209,7 +2220,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2227,12 +2238,74 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3091,11 +3164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" thickBot="1">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="99" t="str">
         <f>Risk_Tracking_Log!A1</f>
         <v>RISK MANAGEMENT LOG</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:2" ht="12" thickBot="1">
       <c r="A2" s="63" t="s">
@@ -3271,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -3315,20 +3388,20 @@
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="80" t="str">
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="79" t="str">
         <f>A2</f>
         <v>Project Name:</v>
       </c>
-      <c r="J2" s="77" t="str">
+      <c r="J2" s="76" t="str">
         <f>D2</f>
         <v>ABC's Inventory Management System</v>
       </c>
@@ -3348,20 +3421,20 @@
       <c r="A3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="85" t="str">
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="84" t="str">
         <f>A3</f>
         <v>National Center:</v>
       </c>
-      <c r="J3" s="82" t="str">
+      <c r="J3" s="81" t="str">
         <f>D3</f>
         <v>Australia</v>
       </c>
@@ -3381,20 +3454,20 @@
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="86" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="85" t="str">
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="84" t="str">
         <f>A4</f>
         <v>Project Manager Name:</v>
       </c>
-      <c r="J4" s="86" t="str">
+      <c r="J4" s="85" t="str">
         <f>D4</f>
         <v>Hieu Hanh Tran</v>
       </c>
@@ -3414,20 +3487,20 @@
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="87"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="85" t="str">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="84" t="str">
         <f>A5</f>
         <v>Project Description:</v>
       </c>
-      <c r="J5" s="89" t="str">
+      <c r="J5" s="88" t="str">
         <f>D5</f>
         <v xml:space="preserve">Develop an inventory management system which will help ABC to get detailed and precise information about the stock movement, stock information and stock theft. This also allows employees to look up current stock contents of the warehouse and each store and then request stock as required. Employees will also be able to send stock digitally i.e. automatically make an update to the database when stock is sent. Moreover, distribution of stock would also be much easier for the warehouse staff as they will know the quantity of each stock for each store. </v>
       </c>
@@ -3499,28 +3572,28 @@
         <f>IF(OR(AND(B7&lt;&gt;"Closed",C7="High",D7="High"),AND(B7&lt;&gt;"Closed",C7="High",D7="Medium"),AND(B7&lt;&gt;"Closed",C7="Medium",D7="High")),"Red",IF(OR(AND(B7&lt;&gt;"Closed",C7="High",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Medium",D7="Medium"),AND(B7&lt;&gt;"Closed",C7="Low",D7="High")),"Yellow",IF(OR(AND(B7&lt;&gt;"Closed",C7="Medium",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",D7="Medium")),"Green",IF(B7="Closed","Closed",""))))</f>
         <v>Closed</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="92" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="94" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3538,28 +3611,28 @@
       <c r="E8" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="92" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="96" t="s">
+      <c r="K8" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="94" t="s">
+      <c r="L8" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="97" t="s">
+      <c r="M8" s="96" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3571,35 +3644,35 @@
       <c r="C9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="71" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="67" t="str">
-        <f t="shared" ref="E8:E32" si="0">IF(OR(AND(B9&lt;&gt;"Closed",C9="High",D9="High"),AND(B9&lt;&gt;"Closed",C9="High",D9="Medium"),AND(B9&lt;&gt;"Closed",C9="Medium",D9="High")),"Red",IF(OR(AND(B9&lt;&gt;"Closed",C9="High",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Medium",D9="Medium"),AND(B9&lt;&gt;"Closed",C9="Low",D9="High")),"Yellow",IF(OR(AND(B9&lt;&gt;"Closed",C9="Medium",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Low",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Low",D9="Medium")),"Green",IF(B9="Closed","Closed",""))))</f>
+        <f t="shared" ref="E9:E32" si="0">IF(OR(AND(B9&lt;&gt;"Closed",C9="High",D9="High"),AND(B9&lt;&gt;"Closed",C9="High",D9="Medium"),AND(B9&lt;&gt;"Closed",C9="Medium",D9="High")),"Red",IF(OR(AND(B9&lt;&gt;"Closed",C9="High",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Medium",D9="Medium"),AND(B9&lt;&gt;"Closed",C9="Low",D9="High")),"Yellow",IF(OR(AND(B9&lt;&gt;"Closed",C9="Medium",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Low",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Low",D9="Medium")),"Green",IF(B9="Closed","Closed",""))))</f>
         <v>Yellow</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="92" t="s">
         <v>83</v>
       </c>
       <c r="H9" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="99" t="s">
+      <c r="K9" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="94" t="s">
+      <c r="L9" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="94" t="s">
+      <c r="M9" s="93" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3618,7 +3691,7 @@
         <f t="shared" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="73" t="s">
         <v>110</v>
       </c>
       <c r="G10" s="68" t="s">
@@ -3627,19 +3700,19 @@
       <c r="H10" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="94" t="s">
+      <c r="L10" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="94" t="s">
+      <c r="M10" s="93" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3658,7 +3731,7 @@
         <f t="shared" si="0"/>
         <v>Green</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="73" t="s">
         <v>114</v>
       </c>
       <c r="G11" s="68" t="s">
@@ -3667,17 +3740,17 @@
       <c r="H11" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="98" t="s">
+      <c r="I11" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="71" t="s">
+      <c r="J11" s="93"/>
+      <c r="K11" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="94" t="s">
+      <c r="L11" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="94"/>
+      <c r="M11" s="93"/>
     </row>
     <row r="12" spans="1:21" ht="45" thickBot="1">
       <c r="A12" s="12"/>
@@ -3694,7 +3767,7 @@
         <f t="shared" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="74" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="68" t="s">
@@ -3703,23 +3776,23 @@
       <c r="H12" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="70" t="s">
         <v>89</v>
       </c>
       <c r="L12" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="94" t="s">
+      <c r="M12" s="93" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="34" thickBot="1">
+    <row r="13" spans="1:21" ht="45" thickBot="1">
       <c r="A13" s="12"/>
       <c r="B13" s="65" t="s">
         <v>81</v>
@@ -3734,28 +3807,28 @@
         <f t="shared" ref="E13:E15" si="1">IF(OR(AND(B13&lt;&gt;"Closed",C13="High",D13="High"),AND(B13&lt;&gt;"Closed",C13="High",D13="Medium"),AND(B13&lt;&gt;"Closed",C13="Medium",D13="High")),"Red",IF(OR(AND(B13&lt;&gt;"Closed",C13="High",D13="Low"),AND(B13&lt;&gt;"Closed",C13="Medium",D13="Medium"),AND(B13&lt;&gt;"Closed",C13="Low",D13="High")),"Yellow",IF(OR(AND(B13&lt;&gt;"Closed",C13="Medium",D13="Low"),AND(B13&lt;&gt;"Closed",C13="Low",D13="Low"),AND(B13&lt;&gt;"Closed",C13="Low",D13="Medium")),"Green",IF(B13="Closed","Closed",""))))</f>
         <v>Closed</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="74" t="s">
         <v>123</v>
       </c>
       <c r="G13" s="68" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" s="71" t="s">
-        <v>89</v>
+        <v>131</v>
+      </c>
+      <c r="I13" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="L13" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="93" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3774,29 +3847,29 @@
         <f t="shared" si="1"/>
         <v>Closed</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="74" t="s">
         <v>122</v>
       </c>
       <c r="G14" s="68" t="s">
         <v>124</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="64" t="s">
+      <c r="M14" s="93" t="s">
         <v>129</v>
-      </c>
-      <c r="M14" s="94" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="45" thickBot="1">
@@ -3814,99 +3887,146 @@
         <f t="shared" si="1"/>
         <v>Closed</v>
       </c>
-      <c r="F15" s="75" t="s">
-        <v>125</v>
+      <c r="F15" s="74" t="s">
+        <v>135</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>124</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="71" t="s">
-        <v>89</v>
+      <c r="K15" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" s="94" t="s">
-        <v>134</v>
+        <v>142</v>
+      </c>
+      <c r="M15" s="93" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="34" thickBot="1">
       <c r="A16" s="12"/>
       <c r="B16" s="65" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="67" t="str">
         <f t="shared" ref="E16" si="2">IF(OR(AND(B16&lt;&gt;"Closed",C16="High",D16="High"),AND(B16&lt;&gt;"Closed",C16="High",D16="Medium"),AND(B16&lt;&gt;"Closed",C16="Medium",D16="High")),"Red",IF(OR(AND(B16&lt;&gt;"Closed",C16="High",D16="Low"),AND(B16&lt;&gt;"Closed",C16="Medium",D16="Medium"),AND(B16&lt;&gt;"Closed",C16="Low",D16="High")),"Yellow",IF(OR(AND(B16&lt;&gt;"Closed",C16="Medium",D16="Low"),AND(B16&lt;&gt;"Closed",C16="Low",D16="Low"),AND(B16&lt;&gt;"Closed",C16="Low",D16="Medium")),"Green",IF(B16="Closed","Closed",""))))</f>
-        <v>Yellow</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>135</v>
+        <v>Closed</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>138</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>124</v>
       </c>
       <c r="H16" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="34" thickBot="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="67" t="str">
+        <f t="shared" ref="E17:E18" si="3">IF(OR(AND(B17&lt;&gt;"Closed",C17="High",D17="High"),AND(B17&lt;&gt;"Closed",C17="High",D17="Medium"),AND(B17&lt;&gt;"Closed",C17="Medium",D17="High")),"Red",IF(OR(AND(B17&lt;&gt;"Closed",C17="High",D17="Low"),AND(B17&lt;&gt;"Closed",C17="Medium",D17="Medium"),AND(B17&lt;&gt;"Closed",C17="Low",D17="High")),"Yellow",IF(OR(AND(B17&lt;&gt;"Closed",C17="Medium",D17="Low"),AND(B17&lt;&gt;"Closed",C17="Low",D17="Low"),AND(B17&lt;&gt;"Closed",C17="Low",D17="Medium")),"Green",IF(B17="Closed","Closed",""))))</f>
+        <v>Closed</v>
+      </c>
+      <c r="F17" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="G17" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" s="93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="34" thickBot="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>Yellow</v>
+      </c>
+      <c r="F18" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="96" t="s">
+      <c r="G18" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="93"/>
+      <c r="K18" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="94"/>
-    </row>
-    <row r="17" spans="1:13" ht="14" thickBot="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="94"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
+      <c r="L18" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="93"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="12"/>
@@ -3920,9 +4040,9 @@
       <c r="F19" s="33"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
       <c r="L19" s="14"/>
       <c r="M19" s="34"/>
     </row>
@@ -4162,147 +4282,180 @@
   </sheetData>
   <autoFilter ref="B6:D6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C33:E65533 C1:E1 B6:C6 B7:B12 B18:B32">
-    <cfRule type="cellIs" dxfId="64" priority="46" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C33:E65533 C1:E1 B6:C6 B7:B12 B19:B32">
+    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L32">
-    <cfRule type="cellIs" dxfId="61" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="68" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E12 E18:E32">
-    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E7:E12 E19:E32">
+    <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="70" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D12 C18:D32">
-    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C7:D12 C19:D32">
+    <cfRule type="cellIs" dxfId="65" priority="72" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="73" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="74" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="53" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="50" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="44" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="53" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="54" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="35" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="32" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15">
-    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="44" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="45" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:D16">
+    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -4313,7 +4466,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
@@ -4324,7 +4477,7 @@
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D16">
+  <conditionalFormatting sqref="C17:D17">
     <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -4335,7 +4488,7 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -4346,7 +4499,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
@@ -4357,7 +4510,7 @@
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D17">
+  <conditionalFormatting sqref="C18:D18">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -4369,10 +4522,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7 K10:K15 K18:K32" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7 K10:K17 K19:K32" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Acceptance,Avoidance,Contingency,Mitigation,Transfer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L11 L18:L32 C7:D32" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L11 C7:D32 L19:L32" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B32" xr:uid="{00000000-0002-0000-0100-000002000000}">

--- a/Documentation/Risk List/Risk List 6.1.xlsx
+++ b/Documentation/Risk List/Risk List 6.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macuser/Documents/CSU/Study/Year 3/Sem 1/Software Development 1/salesAndWarehouseSystem/Documentation/Risk List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB672DEF-4CA8-F64B-A3D8-D34F6734507B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99799F8C-3A22-3246-BBDD-EC2D29ED0F48}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="460" windowWidth="14360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -1247,9 +1247,6 @@
     <t>The manager will have the right to give punishments to the responsible team members.</t>
   </si>
   <si>
-    <t>The database connection may be disrupted if it crosses over the limit connection.</t>
-  </si>
-  <si>
     <t>The versions of Jersey, Maven, JDK are incompetable what may cause the issues when deploying the implementation.</t>
   </si>
   <si>
@@ -1261,18 +1258,6 @@
   </si>
   <si>
     <t>The Inteillij IDEA cannot deploy the product.</t>
-  </si>
-  <si>
-    <t>Debug the product and close the connection to database every time execute a quey.</t>
-  </si>
-  <si>
-    <t>Cannot solve the bugs after the due date of task as Iteration Plan.</t>
-  </si>
-  <si>
-    <t>Ask help from other teams or the Database experts</t>
-  </si>
-  <si>
-    <t>Ask help from other teams or the IT experts</t>
   </si>
   <si>
     <t>Performance
@@ -1280,9 +1265,6 @@
 Schedule</t>
   </si>
   <si>
-    <t>The requirement is added after “freezing” the requirements.</t>
-  </si>
-  <si>
     <t>Consider the importance of this requirement or try to find other alternatives.</t>
   </si>
   <si>
@@ -1308,22 +1290,85 @@
     <t>The Error 500 will be issued.</t>
   </si>
   <si>
-    <t>Intellij cannot display the data to database when execute the product too many times.</t>
-  </si>
-  <si>
     <t>Try to find the solution through online resources or trying to delete the work.xml file.</t>
   </si>
   <si>
     <t xml:space="preserve">Try to find the solution through online resources or trying to delete and create a new artifact solved the issue. </t>
   </si>
   <si>
-    <t>Ask help from other teams or the Intellij experts</t>
-  </si>
-  <si>
     <t>Try to find the solution through online resources or trying to check the security settings of AWS.</t>
   </si>
   <si>
-    <t>Ask help from other teams or the AWS experts</t>
+    <t>System cannot carry out CRUD functions on the database .</t>
+  </si>
+  <si>
+    <t>Unable to connect to the database due to the number of request exceeding the allowed number of requests for AWS RDS.</t>
+  </si>
+  <si>
+    <t>Unable to solve the bug after the due date of task according to the  Iteration Plan.</t>
+  </si>
+  <si>
+    <t>Close the connection to database every time a connection is made.</t>
+  </si>
+  <si>
+    <t>Ask help from other developers or Database experts</t>
+  </si>
+  <si>
+    <t>Ask help from other teams or Java EE experts</t>
+  </si>
+  <si>
+    <t>Ask help from other teams or IT experts</t>
+  </si>
+  <si>
+    <t>Ask help from other teams or Java experts</t>
+  </si>
+  <si>
+    <t>Ask help from other teams or AWS experts</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>The requirement are added after “freezing” the requirements.</t>
+  </si>
+  <si>
+    <t>The requirement added to add to the system.</t>
+  </si>
+  <si>
+    <t>The Project Plan need to be extended for doing the requirements</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2242,70 +2287,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -3156,21 +3138,21 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93" style="10" customWidth="1"/>
     <col min="3" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" thickBot="1">
+    <row r="1" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="str">
         <f>Risk_Tracking_Log!A1</f>
         <v>RISK MANAGEMENT LOG</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:2" ht="12" thickBot="1">
+    <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
@@ -3178,19 +3160,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="23"/>
       <c r="B3" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
@@ -3198,7 +3180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="44">
+    <row r="6" spans="1:2" ht="44" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
@@ -3206,7 +3188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="66">
+    <row r="7" spans="1:2" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
@@ -3214,7 +3196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
@@ -3222,7 +3204,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="55">
+    <row r="9" spans="1:2" ht="55" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
@@ -3230,7 +3212,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
@@ -3238,7 +3220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
         <v>19</v>
       </c>
@@ -3246,7 +3228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
         <v>61</v>
       </c>
@@ -3254,7 +3236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
         <v>62</v>
       </c>
@@ -3262,7 +3244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -3270,7 +3252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>64</v>
       </c>
@@ -3278,7 +3260,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
         <v>65</v>
       </c>
@@ -3286,7 +3268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12" thickBot="1">
+    <row r="17" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>70</v>
       </c>
@@ -3294,8 +3276,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12" thickBot="1"/>
-    <row r="20" spans="1:2" ht="12" thickBot="1">
+    <row r="19" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>12</v>
       </c>
@@ -3303,7 +3285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" thickBot="1">
+    <row r="21" spans="1:2" ht="34" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>66</v>
       </c>
@@ -3311,8 +3293,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12" thickBot="1"/>
-    <row r="24" spans="1:2" ht="12" thickBot="1">
+    <row r="23" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>12</v>
       </c>
@@ -3320,7 +3302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="56" thickBot="1">
+    <row r="25" spans="1:2" ht="56" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>20</v>
       </c>
@@ -3344,11 +3326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="J9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="6" bestFit="1" customWidth="1"/>
@@ -3365,7 +3347,7 @@
     <col min="16" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" ht="19" thickBot="1">
+    <row r="1" spans="1:21" s="7" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3384,7 +3366,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="14" thickBot="1">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -3417,7 +3399,7 @@
       <c r="T2" s="53"/>
       <c r="U2" s="53"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="14" thickBot="1">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>76</v>
       </c>
@@ -3450,7 +3432,7 @@
       <c r="T3" s="53"/>
       <c r="U3" s="53"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="14" thickBot="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -3483,7 +3465,7 @@
       <c r="T4" s="53"/>
       <c r="U4" s="53"/>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="128" customHeight="1" thickBot="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="128" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -3516,7 +3498,7 @@
       <c r="T5" s="53"/>
       <c r="U5" s="53"/>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" ht="23" thickBot="1">
+    <row r="6" spans="1:21" s="3" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>0</v>
       </c>
@@ -3557,8 +3539,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="45" thickBot="1">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:21" ht="45" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="B7" s="65" t="s">
         <v>81</v>
       </c>
@@ -3597,8 +3581,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="56" thickBot="1">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:21" ht="56" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="B8" s="65" t="s">
         <v>8</v>
       </c>
@@ -3636,8 +3622,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="34" thickBot="1">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:21" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="B9" s="65" t="s">
         <v>8</v>
       </c>
@@ -3676,8 +3664,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="45" thickBot="1">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:21" ht="45" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="B10" s="65" t="s">
         <v>81</v>
       </c>
@@ -3716,8 +3706,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="46" customHeight="1" thickBot="1">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="B11" s="65" t="s">
         <v>8</v>
       </c>
@@ -3752,8 +3744,10 @@
       </c>
       <c r="M11" s="93"/>
     </row>
-    <row r="12" spans="1:21" ht="45" thickBot="1">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:21" ht="45" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="B12" s="65" t="s">
         <v>81</v>
       </c>
@@ -3792,8 +3786,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="45" thickBot="1">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:21" ht="45" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="B13" s="65" t="s">
         <v>81</v>
       </c>
@@ -3808,32 +3804,34 @@
         <v>Closed</v>
       </c>
       <c r="F13" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="H13" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="97" t="s">
-        <v>125</v>
-      </c>
       <c r="J13" s="93" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L13" s="64" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M13" s="93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="34" thickBot="1">
-      <c r="A14" s="12"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="B14" s="65" t="s">
         <v>81</v>
       </c>
@@ -3848,32 +3846,34 @@
         <v>Closed</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I14" s="97" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K14" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M14" s="93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="45" thickBot="1">
-      <c r="A15" s="12"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="45" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="B15" s="65" t="s">
         <v>81</v>
       </c>
@@ -3888,32 +3888,34 @@
         <v>Closed</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I15" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="93" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K15" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M15" s="93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="34" thickBot="1">
-      <c r="A16" s="12"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="B16" s="65" t="s">
         <v>81</v>
       </c>
@@ -3928,32 +3930,34 @@
         <v>Closed</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I16" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="93" t="s">
         <v>140</v>
-      </c>
-      <c r="J16" s="93" t="s">
-        <v>128</v>
       </c>
       <c r="K16" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M16" s="93" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="34" thickBot="1">
-      <c r="A17" s="12"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B17" s="65" t="s">
         <v>81</v>
       </c>
@@ -3968,32 +3972,34 @@
         <v>Closed</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I17" s="97" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K17" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M17" s="93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="34" thickBot="1">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:13" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="B18" s="65" t="s">
         <v>8</v>
       </c>
@@ -4008,27 +4014,31 @@
         <v>Yellow</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I18" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" s="93"/>
+        <v>159</v>
+      </c>
+      <c r="J18" s="93" t="s">
+        <v>160</v>
+      </c>
       <c r="K18" s="95" t="s">
         <v>90</v>
       </c>
       <c r="L18" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" s="93"/>
-    </row>
-    <row r="19" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="M18" s="93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="14"/>
       <c r="C19" s="27"/>
@@ -4046,7 +4056,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="14"/>
       <c r="C20" s="27"/>
@@ -4064,7 +4074,7 @@
       <c r="L20" s="60"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="14"/>
       <c r="C21" s="27"/>
@@ -4082,7 +4092,7 @@
       <c r="L21" s="60"/>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="14"/>
       <c r="C22" s="27"/>
@@ -4100,7 +4110,7 @@
       <c r="L22" s="60"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="14"/>
       <c r="C23" s="27"/>
@@ -4118,7 +4128,7 @@
       <c r="L23" s="60"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="14"/>
       <c r="C24" s="27"/>
@@ -4136,7 +4146,7 @@
       <c r="L24" s="60"/>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="14"/>
       <c r="C25" s="27"/>
@@ -4154,7 +4164,7 @@
       <c r="L25" s="60"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="14"/>
       <c r="C26" s="27"/>
@@ -4172,7 +4182,7 @@
       <c r="L26" s="60"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="14"/>
       <c r="C27" s="27"/>
@@ -4190,7 +4200,7 @@
       <c r="L27" s="60"/>
       <c r="M27" s="34"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="14"/>
       <c r="C28" s="27"/>
@@ -4208,7 +4218,7 @@
       <c r="L28" s="60"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="14"/>
       <c r="C29" s="27"/>
@@ -4226,7 +4236,7 @@
       <c r="L29" s="60"/>
       <c r="M29" s="34"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="14"/>
       <c r="C30" s="27"/>
@@ -4244,7 +4254,7 @@
       <c r="L30" s="60"/>
       <c r="M30" s="34"/>
     </row>
-    <row r="31" spans="1:13" ht="14" thickBot="1">
+    <row r="31" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="14"/>
       <c r="C31" s="27"/>
@@ -4262,7 +4272,7 @@
       <c r="L31" s="60"/>
       <c r="M31" s="34"/>
     </row>
-    <row r="32" spans="1:13" ht="14" thickBot="1">
+    <row r="32" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="15"/>
       <c r="C32" s="48"/>
@@ -4283,175 +4293,175 @@
   <autoFilter ref="B6:D6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C33:E65533 C1:E1 B6:C6 B7:B12 B19:B32">
-    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L32">
-    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="67" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="68" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E12 E19:E32">
-    <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="70" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="71" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D12 C19:D32">
-    <cfRule type="cellIs" dxfId="65" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="72" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="73" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="74" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="61" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="62" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="63" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="52" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="53" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="54" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="42" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15">
-    <cfRule type="cellIs" dxfId="38" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="43" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="44" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="45" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D16">
-    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="36" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4552,107 +4562,107 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" thickBot="1">
+    <row r="1" spans="1:1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
         <v>44</v>
       </c>
